--- a/emails_and_phones.xlsx
+++ b/emails_and_phones.xlsx
@@ -441,70 +441,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Emails</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Téléphones</t>
+          <t>Téléphone(s)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>RGPD</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Filtre_RGPD</t>
+          <t>LinkedIn(s)</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.leplongeoir.com/</t>
+          <t>https://www.facebook.com/biscotto54/?locale=fr_FR&amp;checkpoint_src=any</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>commercial@leplongeoir.com, 02contact@leplongeoir.com, contact@leplongeoir.com</t>
+          <t>Biscotto.nancy@laposte.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+33 4 93 26 53 02</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>commercial@leplongeoir.com (✅ Faible), 02contact@leplongeoir.com (✅ Faible), contact@leplongeoir.com (✅ Faible)</t>
-        </is>
-      </c>
+          <t>+33 3 83 46 68 67</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>⚠️ Modéré</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://westminster-nice.com/fr/page/restaurant-le-duc-hotel-restaurant-nice.21432.html</t>
+          <t>https://linkforce.in/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>restauration@westminster-nice.com, reservation@westminster-nice.com</t>
+          <t>chloe@linkforce.in</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+33 4 92 14 86 85, +33 4 92 14 86 86</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>restauration@westminster-nice.com (⚠️ Modéré), reservation@westminster-nice.com (⚠️ Modéré)</t>
-        </is>
-      </c>
+          <t>+33 4 22 88 00 43</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>⚠️ Modéré</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
